--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -169,7 +169,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">ทดสอบ</t>
@@ -380,7 +380,7 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03672A8-4C4C-470E-9037-045A8C741683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BB5AA-B3BA-4511-A7F3-FAEB62261022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>111</t>
   </si>
   <si>
-    <t>ashh68461</t>
-  </si>
-  <si>
     <t>2023-08-22</t>
   </si>
   <si>
@@ -252,16 +249,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>[][ผู้ออกหุ้น][][][]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>[|Limited|Test|Automation|0|O]</t>
+  </si>
+  <si>
+    <t>kj5is9S9j6</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -624,10 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,62 +850,62 @@
         <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -912,53 +913,53 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AN2" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="AO2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>

--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BB5AA-B3BA-4511-A7F3-FAEB62261022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA40F3-C848-424A-AEDF-831CF08FCD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t>kj5is9S9j6</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA40F3-C848-424A-AEDF-831CF08FCD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC8D3D0-F99D-4445-800A-D4C924BB9E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>creationDate</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +950,7 @@
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>56</v>

--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC8D3D0-F99D-4445-800A-D4C924BB9E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555439F-DE83-45C9-818B-8EFB4497B53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -261,10 +261,10 @@
     <t>kj5is9S9j6</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +841,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>56</v>

--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555439F-DE83-45C9-818B-8EFB4497B53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD05EAC-2BF2-4689-9D16-D4F488966494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -634,58 +634,57 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.7109375" style="1" customWidth="1"/>
     <col min="37" max="39" width="9" style="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="1" customWidth="1"/>
-    <col min="43" max="44" width="12.77734375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="11.6640625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="17.21875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.44140625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="10.21875" style="1" customWidth="1"/>
-    <col min="49" max="49" width="8.77734375" style="1" customWidth="1"/>
-    <col min="50" max="54" width="2.6640625" style="1"/>
-    <col min="57" max="16384" width="2.6640625" style="1"/>
+    <col min="43" max="44" width="12.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="17.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="18.42578125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.28515625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" style="1" customWidth="1"/>
+    <col min="50" max="54" width="2.7109375" style="1"/>
+    <col min="57" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -839,7 +838,7 @@
       <c r="BA1" s="2"/>
       <c r="BB1" s="2"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>

--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD05EAC-2BF2-4689-9D16-D4F488966494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEF2F2D-8B59-4212-AD40-2023F4B02B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEF2F2D-8B59-4212-AD40-2023F4B02B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39494B7-21DF-468C-9CDF-BF08797E974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -331,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -477,7 +477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
+++ b/Data Files/Input Validation/05. detail1/08. Typecode 111/Auto_Detail1_TC111_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD828A6-6B29-4BBF-BA91-23E2F4AC0ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F598B-B33B-4921-8401-3BADCB2D0B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,16 +255,16 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>[|Limited|Test|Automation|0|O]</t>
-  </si>
-  <si>
     <t>kj5is9S9j6</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|Limited|Test|Automation||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -331,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -477,7 +477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,7 +631,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
         <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>52</v>
@@ -945,11 +945,11 @@
         <v>73</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>56</v>
